--- a/public/imported_files/ben.xlsx
+++ b/public/imported_files/ben.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>sdff</t>
   </si>
   <si>
     <t>slùfùsldmsdfs</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +397,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>878</v>
+      </c>
+      <c r="D2">
+        <v>78878</v>
+      </c>
+      <c r="E2">
+        <v>5454</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
